--- a/rnaSample/rnaSample_H.BROWN_09.04.20.xlsx
+++ b/rnaSample/rnaSample_H.BROWN_09.04.20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/rnaSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AFF909B-10EC-FC40-A21C-22725977EF3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A5D71D-D07F-714F-9D4E-7F9A64EB3CEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22720" windowHeight="14640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A2" sqref="A2:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/rnaSample/rnaSample_H.BROWN_09.04.20.xlsx
+++ b/rnaSample/rnaSample_H.BROWN_09.04.20.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/rnaSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A5D71D-D07F-714F-9D4E-7F9A64EB3CEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377CCE0E-6FA1-3141-8E78-B781D48ED6A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22720" windowHeight="14640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6460" yWindow="460" windowWidth="22720" windowHeight="14640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C29"/>
+      <selection activeCell="A26" sqref="A26:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1101,6 +1101,78 @@
         <v>16</v>
       </c>
     </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H49" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/rnaSample/rnaSample_H.BROWN_09.04.20.xlsx
+++ b/rnaSample/rnaSample_H.BROWN_09.04.20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/rnaSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377CCE0E-6FA1-3141-8E78-B781D48ED6A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A346E0-3B18-5A40-82B2-1DB7B01FD114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6460" yWindow="460" windowWidth="22720" windowHeight="14640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD50"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
